--- a/medicine/Enfance/Alain_Grée/Alain_Grée.xlsx
+++ b/medicine/Enfance/Alain_Grée/Alain_Grée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alain_Gr%C3%A9e</t>
+          <t>Alain_Grée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Grée est un auteur et illustrateur français né le 21 juillet 1936 à Eaubonne, près de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alain_Gr%C3%A9e</t>
+          <t>Alain_Grée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'école des arts appliqués de Paris et à l'École nationale supérieure des beaux-arts de Paris, Alain Grée devient un des auteurs-illustrateurs les plus marquants de l'édition de publications destinées aux enfants (Pomme d'Api, Le Journal de Mickey, Hachette Jeunesse, Casterman, Nathan…). Il est aussi concepteur et illustrateur d'une dizaine de jeux éducatifs chez Fernand Nathan, ainsi que de livres-disques de comptines et chansons enfantines édités chez Philips.
 Depuis les années 1970, il vit et travaille principalement sur son voilier le Pitcairn III — à bord duquel il parcourt le monde accompagné de son épouse Monique, avec qui il a eu deux enfants — et fait faisant ponctuellement des séjours dans sa maison de Saint-Cloud.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alain_Gr%C3%A9e</t>
+          <t>Alain_Grée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Quelques récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1970 : "Mention" Prix Critique en herbe, Foire du livre de jeunesse de Bologne[1] (Italie) pour Séraphin, qu'il a coécrit avec Janine Ast, sur des illustrations de Philippe Fix.
-1972 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, Foire du livre de jeunesse de Bologne[2] (Italie) pour Séraphin, lecture interdite, sur des illustrations de Philippe Fix.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1970 : "Mention" Prix Critique en herbe, Foire du livre de jeunesse de Bologne (Italie) pour Séraphin, qu'il a coécrit avec Janine Ast, sur des illustrations de Philippe Fix.
+1972 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, Foire du livre de jeunesse de Bologne (Italie) pour Séraphin, lecture interdite, sur des illustrations de Philippe Fix.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alain_Gr%C3%A9e</t>
+          <t>Alain_Grée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Collection Cadet-Rama, aux éditions Casterman
+          <t>Collection Cadet-Rama, aux éditions Casterman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 En Route, 1963.
 La Ville, 1963.
 La Mer, 1963.
@@ -608,14 +630,118 @@
 Les Insectes, 1974
 L'Eau, 1978.
 Le Métro, 1980.
-Plaisir des Contes, aux éditions Casterman
-Moustique et le marchand de sable, texte de Paul Guth, 1958.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plaisir des Contes, aux éditions Casterman</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Moustique et le marchand de sable, texte de Paul Guth, 1958.
 Moustique et Barbe Bleue, texte de Paul Guth, 1960.
-Moustique dans la lune, texte de Paul Guth, 1963.
-Série Didier, collection Farandole, éditions Casterman (en tant que narrateur)
-Didier sur le circuit miniature, illustrations de Philippe Salembier, 1966, dernière édition en 1974.
-Didier aux sports d’hiver, illustrations de Philippe Salembier, 1966, rééditions en 1969 et 1974.
-Les Albums roses
+Moustique dans la lune, texte de Paul Guth, 1963.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Didier, collection Farandole, éditions Casterman (en tant que narrateur)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Didier sur le circuit miniature, illustrations de Philippe Salembier, 1966, dernière édition en 1974.
+Didier aux sports d’hiver, illustrations de Philippe Salembier, 1966, rééditions en 1969 et 1974.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les Albums roses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il y a un poussin jaune, 1966.
 Il y a un poisson rouge, 1967.
 Il y a une petite abeille, 1967.
@@ -631,24 +757,161 @@
 Qu'est-ce qui tourne ?, 1966.
 Qu'est-ce qui vole ?, 1967.
 Un navire m'a raconté, 1969.
-Collection Étoile d'or aux éditions Les Deux Coqs d'or
-no 46 : Les Ratons laveurs cherchent un logis, 1966
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Collection Étoile d'or aux éditions Les Deux Coqs d'or</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>no 46 : Les Ratons laveurs cherchent un logis, 1966
 no 59 : Les Ratons laveurs et l'île au trésor, 1967
 no 77 :  Les Ratons laveurs dans la Lune, 1967
 no 86 : Les Ratons laveurs et l'épave engloutie, 1968
-no 100 : Le Rallye des benjamins, 1970
-Divers
-Mirabelle et les Avions, Gautier-Languereau-Paris, Les Albums Merveilleux, no 129, 1964.
+no 100 : Le Rallye des benjamins, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mirabelle et les Avions, Gautier-Languereau-Paris, Les Albums Merveilleux, no 129, 1964.
 Moustachu et les bateaux, Gautier-Languereau, Les Albums merveilleux, no 114, 1963.
-Livre-jeux, éditions Éveil et Découvertes
-Marine
-Alain Grée 1, Navigation, le cap, la route, le point, Voiles Gallimard, Paris, 196 p.
+Livre-jeux, éditions Éveil et Découvertes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alain Grée 1, Navigation, le cap, la route, le point, Voiles Gallimard, Paris, 196 p.
 Alain Grée 2, Grande traversée et point astro, Voiles Gallimard, Paris, 176 p.
 Alain Grée 3, Mouillage, équipement et technique, Voiles Gallimard, Paris, 1981, 172 p.
 Alain Grée 4, Gros temps, tactique, manœuvres, Voiles Gallimard, Paris, 224 p.
-Alain Grée 5, Routes de Méditerranée, Voiles Gallimard, Paris, 164 p.
-Romans policiers
-Diamants pour solitaire La Chouette no 101, 1958
+Alain Grée 5, Routes de Méditerranée, Voiles Gallimard, Paris, 164 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alain_Grée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Diamants pour solitaire La Chouette no 101, 1958
 Héroïne pour solitaire, La Chouette no 120, 1959</t>
         </is>
       </c>
